--- a/Code/Results/Cases/Case_2_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9998235948200203</v>
+        <v>1.025136354050514</v>
       </c>
       <c r="D2">
-        <v>1.023604816429987</v>
+        <v>1.035935189204386</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.027632055931052</v>
+        <v>1.044369296142467</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049619836004223</v>
+        <v>1.034971433796088</v>
       </c>
       <c r="J2">
-        <v>1.022009583417145</v>
+        <v>1.030307062009083</v>
       </c>
       <c r="K2">
-        <v>1.034744809159085</v>
+        <v>1.038730370075007</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.03871940036031</v>
+        <v>1.047140539790082</v>
       </c>
       <c r="N2">
-        <v>1.011380834057029</v>
+        <v>1.014160805081473</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003803713331042</v>
+        <v>1.025968897501893</v>
       </c>
       <c r="D3">
-        <v>1.026678155915472</v>
+        <v>1.036587468207921</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.031213067950359</v>
+        <v>1.045153782415341</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050765212540778</v>
+        <v>1.035126499410188</v>
       </c>
       <c r="J3">
-        <v>1.02419121965323</v>
+        <v>1.030779414340665</v>
       </c>
       <c r="K3">
-        <v>1.036980695256352</v>
+        <v>1.039192564359862</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.041461560678369</v>
+        <v>1.047736319840912</v>
       </c>
       <c r="N3">
-        <v>1.012099963118186</v>
+        <v>1.014316375590159</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006328005453595</v>
+        <v>1.02650787317501</v>
       </c>
       <c r="D4">
-        <v>1.028627157631705</v>
+        <v>1.037009384041707</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.033486276917639</v>
+        <v>1.045661579908158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051477260768144</v>
+        <v>1.035225096666726</v>
       </c>
       <c r="J4">
-        <v>1.02557121375007</v>
+        <v>1.031084676456742</v>
       </c>
       <c r="K4">
-        <v>1.038391931751569</v>
+        <v>1.039490798788019</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.043196676379906</v>
+        <v>1.048121354518763</v>
       </c>
       <c r="N4">
-        <v>1.012554860701867</v>
+        <v>1.014416907200537</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007377365204065</v>
+        <v>1.02673452032548</v>
       </c>
       <c r="D5">
-        <v>1.029437272079167</v>
+        <v>1.037186719161337</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.034431706938132</v>
+        <v>1.045875099696529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051769760775922</v>
+        <v>1.035266129350521</v>
       </c>
       <c r="J5">
-        <v>1.026143977361331</v>
+        <v>1.031212916110085</v>
       </c>
       <c r="K5">
-        <v>1.038976907725963</v>
+        <v>1.039615974926661</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.043916958796869</v>
+        <v>1.048283107759554</v>
       </c>
       <c r="N5">
-        <v>1.012743667106858</v>
+        <v>1.014459138451795</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007552873094414</v>
+        <v>1.026772578957826</v>
       </c>
       <c r="D6">
-        <v>1.02957275866425</v>
+        <v>1.037216492208928</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.034589857371439</v>
+        <v>1.045910952998343</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051818474747897</v>
+        <v>1.035272994403753</v>
       </c>
       <c r="J6">
-        <v>1.026239719309294</v>
+        <v>1.031234442649829</v>
       </c>
       <c r="K6">
-        <v>1.039074646185348</v>
+        <v>1.039636980686582</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.044037366861098</v>
+        <v>1.048310260028655</v>
       </c>
       <c r="N6">
-        <v>1.012775227684636</v>
+        <v>1.014466227362071</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006342073127358</v>
+        <v>1.026510901404493</v>
       </c>
       <c r="D7">
-        <v>1.028638018430037</v>
+        <v>1.03701175375506</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.033498949604948</v>
+        <v>1.045664432808545</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051481195910725</v>
+        <v>1.035225646589497</v>
       </c>
       <c r="J7">
-        <v>1.025578895813393</v>
+        <v>1.031086390366434</v>
       </c>
       <c r="K7">
-        <v>1.038399780616513</v>
+        <v>1.039492472191732</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.043206336517741</v>
+        <v>1.048123516328778</v>
       </c>
       <c r="N7">
-        <v>1.012557393018084</v>
+        <v>1.014417471623785</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001179513863946</v>
+        <v>1.025417660352534</v>
       </c>
       <c r="D8">
-        <v>1.024651829245373</v>
+        <v>1.036155660380381</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.028851555874067</v>
+        <v>1.044634378011409</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050013017248097</v>
+        <v>1.035024198797315</v>
       </c>
       <c r="J8">
-        <v>1.022753556172416</v>
+        <v>1.030466773932786</v>
       </c>
       <c r="K8">
-        <v>1.035507916817737</v>
+        <v>1.038886743075496</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.039654397416558</v>
+        <v>1.04734198377537</v>
       </c>
       <c r="N8">
-        <v>1.011626065393177</v>
+        <v>1.014213408132371</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9916728222810728</v>
+        <v>1.023493321702355</v>
       </c>
       <c r="D9">
-        <v>1.017312244724007</v>
+        <v>1.034646028820056</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.020311810362558</v>
+        <v>1.042820772697346</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047197491830935</v>
+        <v>1.034655931265813</v>
       </c>
       <c r="J9">
-        <v>1.017523100776502</v>
+        <v>1.029372063236914</v>
       </c>
       <c r="K9">
-        <v>1.030130551249763</v>
+        <v>1.037813029761129</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.033083719449299</v>
+        <v>1.045961259606953</v>
       </c>
       <c r="N9">
-        <v>1.009902069882882</v>
+        <v>1.013852822650806</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9850327523948937</v>
+        <v>1.022211924876554</v>
       </c>
       <c r="D10">
-        <v>1.012189829152035</v>
+        <v>1.033638986145175</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.014362534119878</v>
+        <v>1.041612814394181</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045158527733653</v>
+        <v>1.034401536851135</v>
       </c>
       <c r="J10">
-        <v>1.013853051250198</v>
+        <v>1.028640400364148</v>
       </c>
       <c r="K10">
-        <v>1.026342426005561</v>
+        <v>1.037093041607441</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.028477221958032</v>
+        <v>1.045038478183037</v>
       </c>
       <c r="N10">
-        <v>1.008692546811509</v>
+        <v>1.01361178493328</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9820793711205706</v>
+        <v>1.02165743917432</v>
       </c>
       <c r="D11">
-        <v>1.009913221500279</v>
+        <v>1.03320280077286</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.0117207772437</v>
+        <v>1.041090042881018</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044235200261424</v>
+        <v>1.034289285457468</v>
       </c>
       <c r="J11">
-        <v>1.012217151358919</v>
+        <v>1.028323157141312</v>
       </c>
       <c r="K11">
-        <v>1.02465057950394</v>
+        <v>1.036780305081029</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.026424990873513</v>
+        <v>1.044638378802639</v>
       </c>
       <c r="N11">
-        <v>1.008153458659946</v>
+        <v>1.013507264527234</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.980970016033254</v>
+        <v>1.021451535181898</v>
       </c>
       <c r="D12">
-        <v>1.009058410894514</v>
+        <v>1.033040764496031</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.010729195790257</v>
+        <v>1.040895906612078</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043885973888506</v>
+        <v>1.034247276107394</v>
       </c>
       <c r="J12">
-        <v>1.011602180499805</v>
+        <v>1.028205255714649</v>
       </c>
       <c r="K12">
-        <v>1.024014099689144</v>
+        <v>1.036663995428975</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.025653688219421</v>
+        <v>1.044489686228627</v>
       </c>
       <c r="N12">
-        <v>1.00795081192019</v>
+        <v>1.013468418943591</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9812085446876941</v>
+        <v>1.021495699698637</v>
       </c>
       <c r="D13">
-        <v>1.00924219228341</v>
+        <v>1.033075522595303</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.010942367657754</v>
+        <v>1.040937547463221</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043961170582779</v>
+        <v>1.034256301459399</v>
       </c>
       <c r="J13">
-        <v>1.011734430360109</v>
+        <v>1.02823054881035</v>
       </c>
       <c r="K13">
-        <v>1.024150996295853</v>
+        <v>1.036688950800778</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.02581954914047</v>
+        <v>1.04452158478748</v>
       </c>
       <c r="N13">
-        <v>1.007994390829231</v>
+        <v>1.013476752444484</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9819879267224368</v>
+        <v>1.021640417921256</v>
       </c>
       <c r="D14">
-        <v>1.009842752067902</v>
+        <v>1.033189407152439</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.011639025925567</v>
+        <v>1.041073994600717</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044206461946005</v>
+        <v>1.034285819355818</v>
       </c>
       <c r="J14">
-        <v>1.012166468913458</v>
+        <v>1.028313412654358</v>
       </c>
       <c r="K14">
-        <v>1.024598133993143</v>
+        <v>1.036770693846645</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.026361420776556</v>
+        <v>1.044626089406871</v>
       </c>
       <c r="N14">
-        <v>1.008136757476609</v>
+        <v>1.013504053986658</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.982466476518189</v>
+        <v>1.02172959114962</v>
       </c>
       <c r="D15">
-        <v>1.010211549011299</v>
+        <v>1.033259572907462</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.012066879347292</v>
+        <v>1.041158070119208</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044356758602755</v>
+        <v>1.034303964699058</v>
       </c>
       <c r="J15">
-        <v>1.012431682161759</v>
+        <v>1.028364459468574</v>
       </c>
       <c r="K15">
-        <v>1.02487255375132</v>
+        <v>1.036821039211988</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.026694080340157</v>
+        <v>1.044690467884364</v>
       </c>
       <c r="N15">
-        <v>1.008224152484898</v>
+        <v>1.013520872458029</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9852270616798872</v>
+        <v>1.022248732135704</v>
       </c>
       <c r="D16">
-        <v>1.012339654406023</v>
+        <v>1.033667931763344</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.014536437423596</v>
+        <v>1.041647515131741</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045218938302378</v>
+        <v>1.034408942499636</v>
       </c>
       <c r="J16">
-        <v>1.01396061034418</v>
+        <v>1.028661445828383</v>
       </c>
       <c r="K16">
-        <v>1.026453596230996</v>
+        <v>1.037113776437036</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.028612178187245</v>
+        <v>1.045065020455337</v>
       </c>
       <c r="N16">
-        <v>1.008727992525146</v>
+        <v>1.013618718493742</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9869373654074665</v>
+        <v>1.022574475004385</v>
       </c>
       <c r="D17">
-        <v>1.01365861874181</v>
+        <v>1.033924051161647</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.016067633870857</v>
+        <v>1.041954608022031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04574880602439</v>
+        <v>1.034474231497561</v>
       </c>
       <c r="J17">
-        <v>1.014906944544919</v>
+        <v>1.028847623679708</v>
       </c>
       <c r="K17">
-        <v>1.027431327452389</v>
+        <v>1.037297142200624</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.029799684761195</v>
+        <v>1.045299826920324</v>
       </c>
       <c r="N17">
-        <v>1.009039859231081</v>
+        <v>1.013680054993798</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9879274545825559</v>
+        <v>1.022764510676762</v>
       </c>
       <c r="D18">
-        <v>1.014422324096669</v>
+        <v>1.034073428681969</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.016954449226253</v>
+        <v>1.042133757228873</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046053979921494</v>
+        <v>1.034512111084621</v>
       </c>
       <c r="J18">
-        <v>1.015454436516307</v>
+        <v>1.02895617665944</v>
       </c>
       <c r="K18">
-        <v>1.027996668076974</v>
+        <v>1.037404001998417</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.030486806444921</v>
+        <v>1.045436734416212</v>
       </c>
       <c r="N18">
-        <v>1.009220291062947</v>
+        <v>1.013715817086322</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9882637942572389</v>
+        <v>1.022829313884652</v>
       </c>
       <c r="D19">
-        <v>1.014681785021256</v>
+        <v>1.034124360365215</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.01725577394431</v>
+        <v>1.042194847020206</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046157382131839</v>
+        <v>1.034524992691504</v>
       </c>
       <c r="J19">
-        <v>1.015640364619805</v>
+        <v>1.028993183359979</v>
       </c>
       <c r="K19">
-        <v>1.028188603405036</v>
+        <v>1.037440422382291</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.030720169653269</v>
+        <v>1.045483407610353</v>
       </c>
       <c r="N19">
-        <v>1.009281566394941</v>
+        <v>1.013728008572275</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9867546461270809</v>
+        <v>1.022539522208494</v>
       </c>
       <c r="D20">
-        <v>1.013517690749847</v>
+        <v>1.033896573263403</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.015904006351066</v>
+        <v>1.041921657042211</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045692359790443</v>
+        <v>1.034467247532967</v>
       </c>
       <c r="J20">
-        <v>1.014805878256714</v>
+        <v>1.028827652832959</v>
       </c>
       <c r="K20">
-        <v>1.027326940654684</v>
+        <v>1.037277478538544</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.029672851158735</v>
+        <v>1.045274639687025</v>
       </c>
       <c r="N20">
-        <v>1.009006552114684</v>
+        <v>1.013673475659532</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9817587636610269</v>
+        <v>1.021597800435169</v>
       </c>
       <c r="D21">
-        <v>1.009666158667347</v>
+        <v>1.033155871460445</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.011434165915488</v>
+        <v>1.041033813079994</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044134404148604</v>
+        <v>1.034277135737212</v>
       </c>
       <c r="J21">
-        <v>1.012039449050063</v>
+        <v>1.028289013051853</v>
       </c>
       <c r="K21">
-        <v>1.024466687933401</v>
+        <v>1.036746626559162</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.026202104889895</v>
+        <v>1.044595317537252</v>
       </c>
       <c r="N21">
-        <v>1.008094901268417</v>
+        <v>1.013496014968416</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9785459503887918</v>
+        <v>1.021006031268378</v>
       </c>
       <c r="D22">
-        <v>1.007191246935036</v>
+        <v>1.032690061851675</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.008563876515556</v>
+        <v>1.040475847868029</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043118528213019</v>
+        <v>1.034155787551968</v>
       </c>
       <c r="J22">
-        <v>1.010257542399752</v>
+        <v>1.027949983955377</v>
       </c>
       <c r="K22">
-        <v>1.022621577352161</v>
+        <v>1.036412018399598</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.02396756917153</v>
+        <v>1.044167751120431</v>
       </c>
       <c r="N22">
-        <v>1.007507740035871</v>
+        <v>1.013384311008266</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9802561276759729</v>
+        <v>1.021319707657002</v>
       </c>
       <c r="D23">
-        <v>1.008508429144332</v>
+        <v>1.032937005308963</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.010091307997742</v>
+        <v>1.040771610734505</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04366057174907</v>
+        <v>1.03422028850035</v>
       </c>
       <c r="J23">
-        <v>1.011206303323317</v>
+        <v>1.028129743885188</v>
       </c>
       <c r="K23">
-        <v>1.023604244577774</v>
+        <v>1.036589479719429</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.025157226485634</v>
+        <v>1.04439445424847</v>
       </c>
       <c r="N23">
-        <v>1.007820363980761</v>
+        <v>1.013443539329681</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9868372322455689</v>
+        <v>1.022555315763296</v>
       </c>
       <c r="D24">
-        <v>1.013581387396676</v>
+        <v>1.033908989381958</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.015977962038137</v>
+        <v>1.041936546088053</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045717877418491</v>
+        <v>1.034470403911352</v>
       </c>
       <c r="J24">
-        <v>1.014851559611801</v>
+        <v>1.02883667692705</v>
       </c>
       <c r="K24">
-        <v>1.027374123840875</v>
+        <v>1.037286363992698</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.029730178870074</v>
+        <v>1.045286020871777</v>
       </c>
       <c r="N24">
-        <v>1.0090216067172</v>
+        <v>1.013676448622175</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9941817382449994</v>
+        <v>1.023990552281296</v>
       </c>
       <c r="D25">
-        <v>1.019248799864232</v>
+        <v>1.035036422228206</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.022563105875678</v>
+        <v>1.043289445546633</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047953270519129</v>
+        <v>1.034752706772204</v>
       </c>
       <c r="J25">
-        <v>1.018906509260866</v>
+        <v>1.029655404541185</v>
       </c>
       <c r="K25">
-        <v>1.031555474947507</v>
+        <v>1.038091353154891</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.034820972267614</v>
+        <v>1.046318622167365</v>
       </c>
       <c r="N25">
-        <v>1.010358029243136</v>
+        <v>1.013946158546376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025136354050514</v>
+        <v>0.9998235948200208</v>
       </c>
       <c r="D2">
-        <v>1.035935189204386</v>
+        <v>1.023604816429987</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.044369296142467</v>
+        <v>1.027632055931053</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034971433796088</v>
+        <v>1.049619836004223</v>
       </c>
       <c r="J2">
-        <v>1.030307062009083</v>
+        <v>1.022009583417145</v>
       </c>
       <c r="K2">
-        <v>1.038730370075007</v>
+        <v>1.034744809159085</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.047140539790082</v>
+        <v>1.03871940036031</v>
       </c>
       <c r="N2">
-        <v>1.014160805081473</v>
+        <v>1.01138083405703</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025968897501893</v>
+        <v>1.003803713331042</v>
       </c>
       <c r="D3">
-        <v>1.036587468207921</v>
+        <v>1.026678155915472</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.045153782415341</v>
+        <v>1.031213067950358</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035126499410188</v>
+        <v>1.050765212540777</v>
       </c>
       <c r="J3">
-        <v>1.030779414340665</v>
+        <v>1.024191219653229</v>
       </c>
       <c r="K3">
-        <v>1.039192564359862</v>
+        <v>1.036980695256351</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.047736319840912</v>
+        <v>1.041461560678369</v>
       </c>
       <c r="N3">
-        <v>1.014316375590159</v>
+        <v>1.012099963118186</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02650787317501</v>
+        <v>1.006328005453595</v>
       </c>
       <c r="D4">
-        <v>1.037009384041707</v>
+        <v>1.028627157631705</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.045661579908158</v>
+        <v>1.033486276917639</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035225096666726</v>
+        <v>1.051477260768144</v>
       </c>
       <c r="J4">
-        <v>1.031084676456742</v>
+        <v>1.02557121375007</v>
       </c>
       <c r="K4">
-        <v>1.039490798788019</v>
+        <v>1.03839193175157</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.048121354518763</v>
+        <v>1.043196676379906</v>
       </c>
       <c r="N4">
-        <v>1.014416907200537</v>
+        <v>1.012554860701867</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02673452032548</v>
+        <v>1.007377365204065</v>
       </c>
       <c r="D5">
-        <v>1.037186719161337</v>
+        <v>1.029437272079167</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.045875099696529</v>
+        <v>1.034431706938131</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035266129350521</v>
+        <v>1.051769760775922</v>
       </c>
       <c r="J5">
-        <v>1.031212916110085</v>
+        <v>1.026143977361331</v>
       </c>
       <c r="K5">
-        <v>1.039615974926661</v>
+        <v>1.038976907725963</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.048283107759554</v>
+        <v>1.043916958796869</v>
       </c>
       <c r="N5">
-        <v>1.014459138451795</v>
+        <v>1.012743667106858</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026772578957826</v>
+        <v>1.007552873094414</v>
       </c>
       <c r="D6">
-        <v>1.037216492208928</v>
+        <v>1.02957275866425</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.045910952998343</v>
+        <v>1.034589857371439</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035272994403753</v>
+        <v>1.051818474747898</v>
       </c>
       <c r="J6">
-        <v>1.031234442649829</v>
+        <v>1.026239719309295</v>
       </c>
       <c r="K6">
-        <v>1.039636980686582</v>
+        <v>1.039074646185349</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.048310260028655</v>
+        <v>1.044037366861099</v>
       </c>
       <c r="N6">
-        <v>1.014466227362071</v>
+        <v>1.012775227684636</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.026510901404493</v>
+        <v>1.006342073127358</v>
       </c>
       <c r="D7">
-        <v>1.03701175375506</v>
+        <v>1.028638018430037</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.045664432808545</v>
+        <v>1.033498949604948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035225646589497</v>
+        <v>1.051481195910725</v>
       </c>
       <c r="J7">
-        <v>1.031086390366434</v>
+        <v>1.025578895813392</v>
       </c>
       <c r="K7">
-        <v>1.039492472191732</v>
+        <v>1.038399780616513</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.048123516328778</v>
+        <v>1.043206336517741</v>
       </c>
       <c r="N7">
-        <v>1.014417471623785</v>
+        <v>1.012557393018084</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025417660352534</v>
+        <v>1.001179513863946</v>
       </c>
       <c r="D8">
-        <v>1.036155660380381</v>
+        <v>1.024651829245373</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.044634378011409</v>
+        <v>1.028851555874068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035024198797315</v>
+        <v>1.050013017248098</v>
       </c>
       <c r="J8">
-        <v>1.030466773932786</v>
+        <v>1.022753556172417</v>
       </c>
       <c r="K8">
-        <v>1.038886743075496</v>
+        <v>1.035507916817738</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.04734198377537</v>
+        <v>1.039654397416558</v>
       </c>
       <c r="N8">
-        <v>1.014213408132371</v>
+        <v>1.011626065393177</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023493321702355</v>
+        <v>0.991672822281073</v>
       </c>
       <c r="D9">
-        <v>1.034646028820056</v>
+        <v>1.017312244724007</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.042820772697346</v>
+        <v>1.020311810362558</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034655931265813</v>
+        <v>1.047197491830935</v>
       </c>
       <c r="J9">
-        <v>1.029372063236914</v>
+        <v>1.017523100776502</v>
       </c>
       <c r="K9">
-        <v>1.037813029761129</v>
+        <v>1.030130551249763</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.045961259606953</v>
+        <v>1.033083719449299</v>
       </c>
       <c r="N9">
-        <v>1.013852822650806</v>
+        <v>1.009902069882882</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022211924876554</v>
+        <v>0.9850327523948931</v>
       </c>
       <c r="D10">
-        <v>1.033638986145175</v>
+        <v>1.012189829152035</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.041612814394181</v>
+        <v>1.014362534119877</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034401536851135</v>
+        <v>1.045158527733653</v>
       </c>
       <c r="J10">
-        <v>1.028640400364148</v>
+        <v>1.013853051250198</v>
       </c>
       <c r="K10">
-        <v>1.037093041607441</v>
+        <v>1.02634242600556</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.045038478183037</v>
+        <v>1.028477221958031</v>
       </c>
       <c r="N10">
-        <v>1.01361178493328</v>
+        <v>1.008692546811509</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02165743917432</v>
+        <v>0.9820793711205713</v>
       </c>
       <c r="D11">
-        <v>1.03320280077286</v>
+        <v>1.009913221500279</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.041090042881018</v>
+        <v>1.0117207772437</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034289285457468</v>
+        <v>1.044235200261424</v>
       </c>
       <c r="J11">
-        <v>1.028323157141312</v>
+        <v>1.01221715135892</v>
       </c>
       <c r="K11">
-        <v>1.036780305081029</v>
+        <v>1.02465057950394</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.044638378802639</v>
+        <v>1.026424990873513</v>
       </c>
       <c r="N11">
-        <v>1.013507264527234</v>
+        <v>1.008153458659946</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021451535181898</v>
+        <v>0.9809700160332543</v>
       </c>
       <c r="D12">
-        <v>1.033040764496031</v>
+        <v>1.009058410894514</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.040895906612078</v>
+        <v>1.010729195790257</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034247276107394</v>
+        <v>1.043885973888506</v>
       </c>
       <c r="J12">
-        <v>1.028205255714649</v>
+        <v>1.011602180499805</v>
       </c>
       <c r="K12">
-        <v>1.036663995428975</v>
+        <v>1.024014099689144</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.044489686228627</v>
+        <v>1.025653688219421</v>
       </c>
       <c r="N12">
-        <v>1.013468418943591</v>
+        <v>1.00795081192019</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021495699698637</v>
+        <v>0.9812085446876955</v>
       </c>
       <c r="D13">
-        <v>1.033075522595303</v>
+        <v>1.009242192283412</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.040937547463221</v>
+        <v>1.010942367657755</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034256301459399</v>
+        <v>1.043961170582779</v>
       </c>
       <c r="J13">
-        <v>1.02823054881035</v>
+        <v>1.011734430360111</v>
       </c>
       <c r="K13">
-        <v>1.036688950800778</v>
+        <v>1.024150996295855</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.04452158478748</v>
+        <v>1.025819549140471</v>
       </c>
       <c r="N13">
-        <v>1.013476752444484</v>
+        <v>1.007994390829232</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021640417921256</v>
+        <v>0.9819879267224364</v>
       </c>
       <c r="D14">
-        <v>1.033189407152439</v>
+        <v>1.009842752067901</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.041073994600717</v>
+        <v>1.011639025925567</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034285819355818</v>
+        <v>1.044206461946005</v>
       </c>
       <c r="J14">
-        <v>1.028313412654358</v>
+        <v>1.012166468913458</v>
       </c>
       <c r="K14">
-        <v>1.036770693846645</v>
+        <v>1.024598133993143</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.044626089406871</v>
+        <v>1.026361420776556</v>
       </c>
       <c r="N14">
-        <v>1.013504053986658</v>
+        <v>1.008136757476609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02172959114962</v>
+        <v>0.982466476518189</v>
       </c>
       <c r="D15">
-        <v>1.033259572907462</v>
+        <v>1.010211549011299</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.041158070119208</v>
+        <v>1.012066879347292</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034303964699058</v>
+        <v>1.044356758602755</v>
       </c>
       <c r="J15">
-        <v>1.028364459468574</v>
+        <v>1.012431682161758</v>
       </c>
       <c r="K15">
-        <v>1.036821039211988</v>
+        <v>1.02487255375132</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.044690467884364</v>
+        <v>1.026694080340156</v>
       </c>
       <c r="N15">
-        <v>1.013520872458029</v>
+        <v>1.008224152484898</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022248732135704</v>
+        <v>0.9852270616798868</v>
       </c>
       <c r="D16">
-        <v>1.033667931763344</v>
+        <v>1.012339654406023</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.041647515131741</v>
+        <v>1.014536437423596</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034408942499636</v>
+        <v>1.045218938302378</v>
       </c>
       <c r="J16">
-        <v>1.028661445828383</v>
+        <v>1.01396061034418</v>
       </c>
       <c r="K16">
-        <v>1.037113776437036</v>
+        <v>1.026453596230995</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.045065020455337</v>
+        <v>1.028612178187245</v>
       </c>
       <c r="N16">
-        <v>1.013618718493742</v>
+        <v>1.008727992525146</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022574475004385</v>
+        <v>0.9869373654074671</v>
       </c>
       <c r="D17">
-        <v>1.033924051161647</v>
+        <v>1.01365861874181</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.041954608022031</v>
+        <v>1.016067633870858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034474231497561</v>
+        <v>1.04574880602439</v>
       </c>
       <c r="J17">
-        <v>1.028847623679708</v>
+        <v>1.01490694454492</v>
       </c>
       <c r="K17">
-        <v>1.037297142200624</v>
+        <v>1.02743132745239</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.045299826920324</v>
+        <v>1.029799684761197</v>
       </c>
       <c r="N17">
-        <v>1.013680054993798</v>
+        <v>1.009039859231082</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022764510676762</v>
+        <v>0.987927454582556</v>
       </c>
       <c r="D18">
-        <v>1.034073428681969</v>
+        <v>1.014422324096669</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.042133757228873</v>
+        <v>1.016954449226253</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034512111084621</v>
+        <v>1.046053979921494</v>
       </c>
       <c r="J18">
-        <v>1.02895617665944</v>
+        <v>1.015454436516307</v>
       </c>
       <c r="K18">
-        <v>1.037404001998417</v>
+        <v>1.027996668076974</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.045436734416212</v>
+        <v>1.030486806444921</v>
       </c>
       <c r="N18">
-        <v>1.013715817086322</v>
+        <v>1.009220291062947</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022829313884652</v>
+        <v>0.9882637942572385</v>
       </c>
       <c r="D19">
-        <v>1.034124360365215</v>
+        <v>1.014681785021256</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.042194847020206</v>
+        <v>1.01725577394431</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034524992691504</v>
+        <v>1.046157382131839</v>
       </c>
       <c r="J19">
-        <v>1.028993183359979</v>
+        <v>1.015640364619805</v>
       </c>
       <c r="K19">
-        <v>1.037440422382291</v>
+        <v>1.028188603405036</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.045483407610353</v>
+        <v>1.030720169653269</v>
       </c>
       <c r="N19">
-        <v>1.013728008572275</v>
+        <v>1.009281566394941</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022539522208494</v>
+        <v>0.9867546461270806</v>
       </c>
       <c r="D20">
-        <v>1.033896573263403</v>
+        <v>1.013517690749847</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.041921657042211</v>
+        <v>1.015904006351065</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034467247532967</v>
+        <v>1.045692359790442</v>
       </c>
       <c r="J20">
-        <v>1.028827652832959</v>
+        <v>1.014805878256714</v>
       </c>
       <c r="K20">
-        <v>1.037277478538544</v>
+        <v>1.027326940654684</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.045274639687025</v>
+        <v>1.029672851158734</v>
       </c>
       <c r="N20">
-        <v>1.013673475659532</v>
+        <v>1.009006552114684</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021597800435169</v>
+        <v>0.9817587636610267</v>
       </c>
       <c r="D21">
-        <v>1.033155871460445</v>
+        <v>1.009666158667347</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.041033813079994</v>
+        <v>1.011434165915488</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034277135737212</v>
+        <v>1.044134404148604</v>
       </c>
       <c r="J21">
-        <v>1.028289013051853</v>
+        <v>1.012039449050063</v>
       </c>
       <c r="K21">
-        <v>1.036746626559162</v>
+        <v>1.024466687933401</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.044595317537252</v>
+        <v>1.026202104889895</v>
       </c>
       <c r="N21">
-        <v>1.013496014968416</v>
+        <v>1.008094901268417</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021006031268378</v>
+        <v>0.978545950388792</v>
       </c>
       <c r="D22">
-        <v>1.032690061851675</v>
+        <v>1.007191246935036</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.040475847868029</v>
+        <v>1.008563876515556</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034155787551968</v>
+        <v>1.04311852821302</v>
       </c>
       <c r="J22">
-        <v>1.027949983955377</v>
+        <v>1.010257542399752</v>
       </c>
       <c r="K22">
-        <v>1.036412018399598</v>
+        <v>1.022621577352162</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.044167751120431</v>
+        <v>1.023967569171531</v>
       </c>
       <c r="N22">
-        <v>1.013384311008266</v>
+        <v>1.007507740035871</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021319707657002</v>
+        <v>0.9802561276759729</v>
       </c>
       <c r="D23">
-        <v>1.032937005308963</v>
+        <v>1.008508429144332</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.040771610734505</v>
+        <v>1.010091307997742</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03422028850035</v>
+        <v>1.04366057174907</v>
       </c>
       <c r="J23">
-        <v>1.028129743885188</v>
+        <v>1.011206303323317</v>
       </c>
       <c r="K23">
-        <v>1.036589479719429</v>
+        <v>1.023604244577774</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.04439445424847</v>
+        <v>1.025157226485634</v>
       </c>
       <c r="N23">
-        <v>1.013443539329681</v>
+        <v>1.007820363980761</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022555315763296</v>
+        <v>0.9868372322455687</v>
       </c>
       <c r="D24">
-        <v>1.033908989381958</v>
+        <v>1.013581387396676</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.041936546088053</v>
+        <v>1.015977962038137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034470403911352</v>
+        <v>1.045717877418491</v>
       </c>
       <c r="J24">
-        <v>1.02883667692705</v>
+        <v>1.0148515596118</v>
       </c>
       <c r="K24">
-        <v>1.037286363992698</v>
+        <v>1.027374123840875</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.045286020871777</v>
+        <v>1.029730178870074</v>
       </c>
       <c r="N24">
-        <v>1.013676448622175</v>
+        <v>1.0090216067172</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.023990552281296</v>
+        <v>0.9941817382449996</v>
       </c>
       <c r="D25">
-        <v>1.035036422228206</v>
+        <v>1.019248799864232</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.043289445546633</v>
+        <v>1.022563105875678</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034752706772204</v>
+        <v>1.047953270519129</v>
       </c>
       <c r="J25">
-        <v>1.029655404541185</v>
+        <v>1.018906509260867</v>
       </c>
       <c r="K25">
-        <v>1.038091353154891</v>
+        <v>1.031555474947507</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.046318622167365</v>
+        <v>1.034820972267614</v>
       </c>
       <c r="N25">
-        <v>1.013946158546376</v>
+        <v>1.010358029243136</v>
       </c>
     </row>
   </sheetData>
